--- a/biology/Zoologie/Euploea_mulciber/Euploea_mulciber.xlsx
+++ b/biology/Zoologie/Euploea_mulciber/Euploea_mulciber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Euploea mulciber est une espèce d'insecte lépidoptère qui appartient à la famille des Nymphalidae, à la sous-famille des Danainae et au genre Euploea. 
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve de l'Inde jusqu'au sud de la Chine, de la péninsule malaise jusqu'aux Philippines : Inde, Bhoutan, Birmanie, Thaïlande, Laos, Cambodge, Chine, Taïwan, Philippines, Malaisie, Sumatra, Bornéo, Célèbes et Bali.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lépidoptère vit en lisière des forêts tropicales humides de feuillus depuis le niveau de la mer jusqu'à environ 800 m d'altitude.
 </t>
@@ -576,13 +592,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Papillon
-L'imago d'Euploea mulciber est un grand papillon de 7 à 7,5 cm d'envergure pour les mâles et de 7,5 cm à 8 cm pour les femelles[1]. ; ou selon d'autres sources de 9 à 10 cm d'envergure[2].
+          <t>Papillon</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago d'Euploea mulciber est un grand papillon de 7 à 7,5 cm d'envergure pour les mâles et de 7,5 cm à 8 cm pour les femelles. ; ou selon d'autres sources de 9 à 10 cm d'envergure.
 Il y a un dimorphisme sexuel.
 Le dessus des ailes est brun. Les ailes antérieures sont nettement irisées de violet chez le mâle ; au reflet légèrement violacé chez la femelle. Les ailes postérieures sont brunes chez le mâle ; brunes marquées de nombreuses lignes blanches chez la femelle.
 Le dessous des ailes est  brun, sans irisation.
-Chenille
-La chenille est brun jaunâtre. Elle se nourrit de feuilles de nombreux arbres, arbustes ou lianes : laurier-rose (nerium) ; Moraceae de genre ficus (figuier) ; Aristolochiaceae du genre Aristolochia (aristoloches) ; Apocynaceae des genres Ichnocarpus, Nerium, Pottsia, Strophanthus, Mardenia et Toxocarpus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Euploea_mulciber</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_mulciber</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est brun jaunâtre. Elle se nourrit de feuilles de nombreux arbres, arbustes ou lianes : laurier-rose (nerium) ; Moraceae de genre ficus (figuier) ; Aristolochiaceae du genre Aristolochia (aristoloches) ; Apocynaceae des genres Ichnocarpus, Nerium, Pottsia, Strophanthus, Mardenia et Toxocarpus.
 </t>
         </is>
       </c>
